--- a/data_year/zb/运输和邮电/交通运输、邮电通信业就业人员数.xlsx
+++ b/data_year/zb/运输和邮电/交通运输、邮电通信业就业人员数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,649 +483,361 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1200000</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>1616625</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1119633</v>
+      </c>
       <c r="D2" t="n">
-        <v>388000</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
+        <v>444930</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1210936</v>
+      </c>
       <c r="F2" t="n">
-        <v>22000</v>
+        <v>27341</v>
       </c>
       <c r="G2" t="n">
-        <v>117000</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+        <v>272023</v>
+      </c>
+      <c r="H2" t="n">
+        <v>285980</v>
+      </c>
+      <c r="I2" t="n">
+        <v>533887</v>
+      </c>
       <c r="J2" t="n">
-        <v>1871000</v>
+        <v>1756385</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1090348</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
+        <v>1689831</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1169084</v>
+      </c>
       <c r="D3" t="n">
-        <v>326206</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+        <v>460513</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1416417</v>
+      </c>
       <c r="F3" t="n">
-        <v>17918</v>
+        <v>32458</v>
       </c>
       <c r="G3" t="n">
-        <v>121499</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+        <v>335260</v>
+      </c>
+      <c r="H3" t="n">
+        <v>311846</v>
+      </c>
+      <c r="I3" t="n">
+        <v>618264</v>
+      </c>
       <c r="J3" t="n">
-        <v>1789271</v>
+        <v>1761542</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1015618</v>
+        <v>2778125</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>281451</v>
+        <v>447050</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>50902</v>
+        <v>39762</v>
       </c>
       <c r="G4" t="n">
-        <v>120515</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+        <v>376100</v>
+      </c>
+      <c r="H4" t="n">
+        <v>288400</v>
+      </c>
+      <c r="I4" t="n">
+        <v>678609</v>
+      </c>
       <c r="J4" t="n">
-        <v>1758421</v>
+        <v>1793267</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1624952</v>
-      </c>
-      <c r="C5" t="n">
-        <v>888518</v>
-      </c>
+        <v>3806122</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>570463</v>
-      </c>
-      <c r="E5" t="n">
-        <v>812511</v>
-      </c>
+        <v>483428</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>21439</v>
+        <v>37704</v>
       </c>
       <c r="G5" t="n">
-        <v>178820</v>
+        <v>494397</v>
       </c>
       <c r="H5" t="n">
-        <v>277122</v>
+        <v>442510</v>
       </c>
       <c r="I5" t="n">
-        <v>441626</v>
+        <v>1076595</v>
       </c>
       <c r="J5" t="n">
-        <v>1727735</v>
+        <v>1796382</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1595449</v>
-      </c>
-      <c r="C6" t="n">
-        <v>882213</v>
-      </c>
+        <v>3881462</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>525120</v>
-      </c>
-      <c r="E6" t="n">
-        <v>858992</v>
-      </c>
+        <v>491124</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>18653</v>
+        <v>37632</v>
       </c>
       <c r="G6" t="n">
-        <v>205023</v>
+        <v>507789</v>
       </c>
       <c r="H6" t="n">
-        <v>277790</v>
+        <v>436132</v>
       </c>
       <c r="I6" t="n">
-        <v>447091</v>
+        <v>1029294</v>
       </c>
       <c r="J6" t="n">
-        <v>1698667</v>
+        <v>1902500</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1549025</v>
-      </c>
-      <c r="C7" t="n">
-        <v>896132</v>
-      </c>
+        <v>3879657</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>498182</v>
-      </c>
-      <c r="E7" t="n">
-        <v>896292</v>
-      </c>
+        <v>466509</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>17900</v>
+        <v>38536</v>
       </c>
       <c r="G7" t="n">
-        <v>209868</v>
+        <v>553358</v>
       </c>
       <c r="H7" t="n">
-        <v>252303</v>
+        <v>431191</v>
       </c>
       <c r="I7" t="n">
-        <v>454434</v>
+        <v>974473</v>
       </c>
       <c r="J7" t="n">
-        <v>1665588</v>
+        <v>1874448</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1512393</v>
-      </c>
-      <c r="C8" t="n">
-        <v>919627</v>
-      </c>
+        <v>3855896</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>478841</v>
-      </c>
-      <c r="E8" t="n">
-        <v>955771</v>
-      </c>
+        <v>460259</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>17537</v>
+        <v>36444</v>
       </c>
       <c r="G8" t="n">
-        <v>221193</v>
+        <v>595301</v>
       </c>
       <c r="H8" t="n">
-        <v>282037</v>
+        <v>432424</v>
       </c>
       <c r="I8" t="n">
-        <v>468798</v>
+        <v>930745</v>
       </c>
       <c r="J8" t="n">
-        <v>1652720</v>
+        <v>1874131</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1495349</v>
-      </c>
-      <c r="C9" t="n">
-        <v>925750</v>
-      </c>
+        <v>3846122</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>456608</v>
-      </c>
-      <c r="E9" t="n">
-        <v>980431</v>
-      </c>
+        <v>441227</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>17661</v>
+        <v>36965</v>
       </c>
       <c r="G9" t="n">
-        <v>231127</v>
+        <v>624318</v>
       </c>
       <c r="H9" t="n">
-        <v>261236</v>
+        <v>428096</v>
       </c>
       <c r="I9" t="n">
-        <v>477638</v>
+        <v>910924</v>
       </c>
       <c r="J9" t="n">
-        <v>1741029</v>
+        <v>1848032</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1528087</v>
-      </c>
-      <c r="C10" t="n">
-        <v>947342</v>
-      </c>
+        <v>3642970</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>435417</v>
-      </c>
-      <c r="E10" t="n">
-        <v>985309</v>
-      </c>
+        <v>357698</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>19773</v>
+        <v>33883</v>
       </c>
       <c r="G10" t="n">
-        <v>252953</v>
-      </c>
-      <c r="H10" t="n">
-        <v>250135</v>
-      </c>
+        <v>645957</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>435959</v>
+        <v>929159</v>
       </c>
       <c r="J10" t="n">
-        <v>1732909</v>
+        <v>1833800</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1609972</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1087973</v>
-      </c>
+        <v>3647405</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>449479</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1189463</v>
-      </c>
+        <v>319477</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>21842</v>
+        <v>26514</v>
       </c>
       <c r="G11" t="n">
-        <v>252779</v>
-      </c>
-      <c r="H11" t="n">
-        <v>269764</v>
-      </c>
+        <v>623543</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>552687</v>
+        <v>834260</v>
       </c>
       <c r="J11" t="n">
-        <v>1850147</v>
+        <v>1915824</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1616625</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1119633</v>
-      </c>
+        <v>3596333.101</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>444930</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1210936</v>
-      </c>
+        <v>294025.278</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>27341</v>
+        <v>24829.5</v>
       </c>
       <c r="G12" t="n">
-        <v>272023</v>
-      </c>
-      <c r="H12" t="n">
-        <v>285980</v>
-      </c>
+        <v>602531.698</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>533887</v>
+        <v>901028.851</v>
       </c>
       <c r="J12" t="n">
-        <v>1756385</v>
+        <v>1886516.825</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1689831</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1169084</v>
-      </c>
+        <v>3465528.867</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>460513</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1416417</v>
-      </c>
+        <v>283592.128</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>32458</v>
+        <v>40128</v>
       </c>
       <c r="G13" t="n">
-        <v>335260</v>
-      </c>
-      <c r="H13" t="n">
-        <v>311846</v>
-      </c>
+        <v>598428.3370000001</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>618264</v>
+        <v>868078.475</v>
       </c>
       <c r="J13" t="n">
-        <v>1761542</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2778125</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>447050</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>39762</v>
-      </c>
-      <c r="G14" t="n">
-        <v>376100</v>
-      </c>
-      <c r="H14" t="n">
-        <v>288400</v>
-      </c>
-      <c r="I14" t="n">
-        <v>678609</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1793267</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3806122</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>483428</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>37704</v>
-      </c>
-      <c r="G15" t="n">
-        <v>494397</v>
-      </c>
-      <c r="H15" t="n">
-        <v>442510</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1076595</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1796382</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3881462</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="n">
-        <v>491124</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>37632</v>
-      </c>
-      <c r="G16" t="n">
-        <v>507789</v>
-      </c>
-      <c r="H16" t="n">
-        <v>436132</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1029294</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1902500</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>3879657</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
-        <v>466509</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>38536</v>
-      </c>
-      <c r="G17" t="n">
-        <v>553358</v>
-      </c>
-      <c r="H17" t="n">
-        <v>431191</v>
-      </c>
-      <c r="I17" t="n">
-        <v>974473</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1874448</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3855896</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
-        <v>460259</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>36444</v>
-      </c>
-      <c r="G18" t="n">
-        <v>595301</v>
-      </c>
-      <c r="H18" t="n">
-        <v>432424</v>
-      </c>
-      <c r="I18" t="n">
-        <v>930745</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1874131</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>3846122</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="n">
-        <v>441227</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>36965</v>
-      </c>
-      <c r="G19" t="n">
-        <v>624318</v>
-      </c>
-      <c r="H19" t="n">
-        <v>428096</v>
-      </c>
-      <c r="I19" t="n">
-        <v>910924</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1848032</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>3642970</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="n">
-        <v>357698</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>33883</v>
-      </c>
-      <c r="G20" t="n">
-        <v>645957</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
-        <v>929159</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1833800</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>3647405</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="n">
-        <v>319477</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>26514</v>
-      </c>
-      <c r="G21" t="n">
-        <v>623543</v>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="n">
-        <v>834260</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1915824</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>3596333.101</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="n">
-        <v>294025.278</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="n">
-        <v>24829.5</v>
-      </c>
-      <c r="G22" t="n">
-        <v>602531.698</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="n">
-        <v>901028.851</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1886516.825</v>
+        <v>1893457.565</v>
       </c>
     </row>
   </sheetData>
